--- a/SpMVC_ReadBook/도서록 프로젝트  테이블 명세.xlsx
+++ b/SpMVC_ReadBook/도서록 프로젝트  테이블 명세.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\개발자 문서\040. 데이터베이스 DataBase\데이터변환용 자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\spring\SpMVC_ReadBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17854CFF-7D48-45CC-9865-44038EBFCAC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보 테이블 명세" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,17 +95,217 @@
   </si>
   <si>
     <t>오라클형식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>pubdate</t>
+  </si>
+  <si>
+    <t>문자열(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(225)</t>
+  </si>
+  <si>
+    <t>문자열(225)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(2000)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세정보링크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isbn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구입일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구입가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구입처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buydate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyprice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buystore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(125)</t>
+  </si>
+  <si>
+    <t>nVARCHAR2(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(225)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(225)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(2000)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">숫자 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -139,6 +338,27 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="D2Coding"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋윰"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -160,7 +380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -361,13 +581,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -460,6 +747,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,7 +804,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -802,14 +1116,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
@@ -1455,7 +1769,7 @@
     <col min="16141" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
@@ -1476,7 +1790,7 @@
       </c>
       <c r="L1" s="30"/>
     </row>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
@@ -1493,7 +1807,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="27"/>
     </row>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
@@ -1508,7 +1822,7 @@
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1543,44 +1857,71 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="C5" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="C6" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="4"/>
+      <c r="C7" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="G7" s="14"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1588,29 +1929,45 @@
       <c r="K7" s="4"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="C8" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="14"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="4"/>
+      <c r="C9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1618,29 +1975,45 @@
       <c r="K9" s="4"/>
       <c r="L9" s="19"/>
     </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="C10" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="14"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="10">
         <v>7</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="C11" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1648,119 +2021,175 @@
       <c r="K11" s="4"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="C12" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="14"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="10">
         <v>9</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="14"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="10">
         <v>10</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="C14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="14"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="10">
         <v>11</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="C15" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="14"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="10">
         <v>12</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="C16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="14"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="10">
         <v>13</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="C17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="14"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="10">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="C18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="14"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="10">
         <v>15</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1768,20 +2197,33 @@
       <c r="K19" s="11"/>
       <c r="L19" s="20"/>
     </row>
-    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="12">
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="35">
         <v>16</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="21"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B21" s="12"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
